--- a/KL03 Wiring.xlsx
+++ b/KL03 Wiring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/lms213_cam_ac_uk/Documents/Embedded/Coursework/CW5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{9C65E14C-512F-B841-A04F-BCF2C1ABBA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EC1B96A8-B96F-3941-B048-B942618B1B72}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9C65E14C-512F-B841-A04F-BCF2C1ABBA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FA4DF1C9-7398-EB44-A706-AC66C544503B}"/>
   <bookViews>
     <workbookView xWindow="17420" yWindow="500" windowWidth="20980" windowHeight="23500" xr2:uid="{498CF6E8-B9B4-654C-A8C6-F3A7D2C14F37}"/>
   </bookViews>
@@ -186,10 +186,10 @@
     <t>OLED OCS</t>
   </si>
   <si>
-    <t>ALT2</t>
-  </si>
-  <si>
     <t>GND Rail</t>
+  </si>
+  <si>
+    <t>ALT4</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,12 +728,6 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -808,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -883,10 +877,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -899,14 +893,8 @@
       <c r="C16" s="2">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -917,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -928,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -938,8 +926,14 @@
       <c r="C19" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -950,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -961,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -972,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -983,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -994,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1070,8 +1064,14 @@
       <c r="C31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
